--- a/my-app/src/main/Resources/Libro1.xlsx
+++ b/my-app/src/main/Resources/Libro1.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52834\Desktop\Leer Archivos\aperturaylecturadearchivos-DanielEDiaz\my-app\src\main\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52834\Desktop\Horarios\my-app\src\main\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855D10A5-86DC-410E-A0B0-CCE7EDA3E90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6D2E0D-6F89-4DF6-B5B7-8A08CCF9F30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="4728" windowWidth="17280" windowHeight="8964" xr2:uid="{1C130755-00D9-4BA6-A900-A661AF0721A4}"/>
+    <workbookView xWindow="5760" yWindow="1416" windowWidth="17280" windowHeight="7344" xr2:uid="{1C130755-00D9-4BA6-A900-A661AF0721A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Aulas" sheetId="1" r:id="rId1"/>
     <sheet name="Profesores" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Fulanito Martinez</t>
   </si>
@@ -86,6 +85,27 @@
   </si>
   <si>
     <t>me</t>
+  </si>
+  <si>
+    <t>8484</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>6465</t>
+  </si>
+  <si>
+    <t>6541</t>
+  </si>
+  <si>
+    <t>A205-A</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>R89</t>
   </si>
 </sst>
 </file>
@@ -121,10 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,17 +461,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD510DA9-1B6B-427C-AC40-900BB8441DBA}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>8484</v>
+      <c r="A1" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -457,8 +479,8 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1">
-        <v>30</v>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -468,7 +490,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -477,7 +499,7 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -485,6 +507,26 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +540,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,11 +552,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>1546</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -527,10 +569,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>6465</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -547,16 +589,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDD5EE3-8F87-4708-A6E5-0DE3F70A2BBD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>